--- a/aichan/544930860516298141_2021-07-08_11-30-03.xlsx
+++ b/aichan/544930860516298141_2021-07-08_11-30-03.xlsx
@@ -1867,7 +1867,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -11048,7 +11048,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -12058,7 +12058,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -12335,7 +12335,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13865,7 +13865,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -14643,7 +14643,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -17370,7 +17370,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17445,7 +17445,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -17516,7 +17516,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17733,7 +17733,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -17812,7 +17812,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -18033,7 +18033,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18326,7 +18326,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18401,7 +18401,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18690,7 +18690,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -19000,7 +19000,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -19237,7 +19237,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -19304,7 +19304,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -19367,7 +19367,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -20219,7 +20219,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -20428,7 +20428,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20570,7 +20570,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -20645,7 +20645,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20720,7 +20720,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -21227,7 +21227,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -21602,7 +21602,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -21748,7 +21748,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -22179,7 +22179,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -22922,7 +22922,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -23060,7 +23060,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -23131,7 +23131,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -23269,7 +23269,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -23411,7 +23411,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -23691,7 +23691,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -24274,7 +24274,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -24341,7 +24341,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -24866,7 +24866,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -25087,7 +25087,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -25162,7 +25162,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -25310,7 +25310,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -25389,7 +25389,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -25527,7 +25527,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25803,7 +25803,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -25939,7 +25939,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -26006,7 +26006,7 @@
         </is>
       </c>
       <c r="I355" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J355" t="inlineStr">
         <is>
@@ -26809,7 +26809,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -27098,7 +27098,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -27307,7 +27307,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -27386,7 +27386,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -28246,7 +28246,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -28455,7 +28455,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -28897,7 +28897,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -29323,7 +29323,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -29744,7 +29744,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -29906,7 +29906,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -30483,7 +30483,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -31793,7 +31793,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -32164,7 +32164,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -32392,7 +32392,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -32893,7 +32893,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -32968,7 +32968,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -33614,7 +33614,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -33833,7 +33833,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -34861,7 +34861,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -34932,7 +34932,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -35149,7 +35149,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -35591,7 +35591,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -35737,7 +35737,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -37278,7 +37278,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -37433,7 +37433,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -37865,7 +37865,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -37932,7 +37932,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -38592,7 +38592,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -38660,7 +38660,7 @@
         </is>
       </c>
       <c r="I529" t="n">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="J529" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -39426,7 +39426,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -39497,7 +39497,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -40030,7 +40030,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -40176,7 +40176,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -40381,7 +40381,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -40602,7 +40602,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -40827,7 +40827,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -41549,7 +41549,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -41620,7 +41620,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -41687,7 +41687,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -42276,7 +42276,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -43935,7 +43935,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -44678,7 +44678,7 @@
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -44966,7 +44966,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
@@ -45381,7 +45381,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -45452,7 +45452,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -46115,7 +46115,7 @@
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -46609,7 +46609,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -49034,7 +49034,7 @@
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -49391,7 +49391,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -49689,7 +49689,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K680" t="inlineStr">
@@ -49847,7 +49847,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -50220,7 +50220,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K687" t="inlineStr">
@@ -51500,7 +51500,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K705" t="inlineStr">
@@ -51941,7 +51941,7 @@
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K711" t="inlineStr">
@@ -52317,7 +52317,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K716" t="inlineStr">
@@ -52996,7 +52996,7 @@
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K725" t="inlineStr">
@@ -53063,7 +53063,7 @@
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K726" t="inlineStr">
@@ -54395,7 +54395,7 @@
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K744" t="inlineStr">
@@ -55223,7 +55223,7 @@
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K755" t="inlineStr">
@@ -56105,7 +56105,7 @@
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K767" t="inlineStr">
@@ -56342,7 +56342,7 @@
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K770" t="inlineStr">
@@ -56555,7 +56555,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -57067,7 +57067,7 @@
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K780" t="inlineStr">
@@ -57284,7 +57284,7 @@
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K783" t="inlineStr">
@@ -57790,7 +57790,7 @@
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K790" t="inlineStr">
@@ -58179,7 +58179,7 @@
       </c>
       <c r="J795" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K795" t="inlineStr">
@@ -61057,7 +61057,7 @@
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K834" t="inlineStr">
@@ -61208,7 +61208,7 @@
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K836" t="inlineStr">
@@ -61507,7 +61507,7 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K840" t="inlineStr">
@@ -61578,7 +61578,7 @@
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K841" t="inlineStr">
@@ -62377,7 +62377,7 @@
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K852" t="inlineStr">
@@ -62594,7 +62594,7 @@
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K855" t="inlineStr">
@@ -62665,7 +62665,7 @@
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K856" t="inlineStr">
@@ -63158,7 +63158,7 @@
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K863" t="inlineStr">
@@ -64493,7 +64493,7 @@
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K881" t="inlineStr">
@@ -64729,7 +64729,7 @@
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K884" t="inlineStr">
@@ -64879,7 +64879,7 @@
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K886" t="inlineStr">
@@ -64958,7 +64958,7 @@
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K887" t="inlineStr">
@@ -65021,7 +65021,7 @@
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K888" t="inlineStr">
@@ -65092,7 +65092,7 @@
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K889" t="inlineStr">
@@ -65538,7 +65538,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K895" t="inlineStr">
@@ -65688,7 +65688,7 @@
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K897" t="inlineStr">
@@ -65901,7 +65901,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">
@@ -66336,7 +66336,7 @@
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K906" t="inlineStr">
@@ -67323,7 +67323,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K919" t="inlineStr">
@@ -67623,7 +67623,7 @@
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K923" t="inlineStr">
@@ -68013,7 +68013,7 @@
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K928" t="inlineStr">
@@ -68738,7 +68738,7 @@
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K938" t="inlineStr">
@@ -68817,7 +68817,7 @@
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K939" t="inlineStr">
@@ -68896,7 +68896,7 @@
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K940" t="inlineStr">

--- a/aichan/544930860516298141_2021-07-08_11-30-03.xlsx
+++ b/aichan/544930860516298141_2021-07-08_11-30-03.xlsx
@@ -549,7 +549,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4324,11 +4324,11 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6615,11 +6615,11 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -9019,7 +9019,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -11048,7 +11048,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -12200,7 +12200,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12469,7 +12469,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12610,7 +12610,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -13057,7 +13057,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13278,11 +13278,11 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13865,7 +13865,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -14007,7 +14007,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -14643,7 +14643,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -14931,7 +14931,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -16292,7 +16292,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16730,7 +16730,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16801,7 +16801,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -17093,7 +17093,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -17370,7 +17370,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17445,7 +17445,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -17733,7 +17733,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -17812,7 +17812,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18326,7 +18326,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18401,7 +18401,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18551,7 +18551,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -19497,7 +19497,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19856,7 +19856,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -20428,7 +20428,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20503,7 +20503,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20720,7 +20720,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -20921,7 +20921,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -21075,7 +21075,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -22112,7 +22112,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -22179,7 +22179,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -22258,7 +22258,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -22480,7 +22480,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -23060,7 +23060,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -23269,7 +23269,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -23340,7 +23340,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -23561,7 +23561,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -24510,7 +24510,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -24577,7 +24577,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -26437,7 +26437,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -26588,7 +26588,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26655,7 +26655,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -27027,7 +27027,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -27307,7 +27307,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -27386,7 +27386,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -27461,7 +27461,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -27674,7 +27674,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -27749,7 +27749,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -27958,7 +27958,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -28029,7 +28029,7 @@
         </is>
       </c>
       <c r="I383" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J383" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -28171,7 +28171,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -28585,7 +28585,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -29323,7 +29323,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -30700,7 +30700,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -31136,7 +31136,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -31211,7 +31211,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -31286,7 +31286,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -31793,7 +31793,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -32164,7 +32164,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -32232,7 +32232,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -32392,7 +32392,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -32617,7 +32617,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -32893,7 +32893,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -32968,7 +32968,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -33039,7 +33039,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -33476,7 +33476,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -33547,7 +33547,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -33614,7 +33614,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -33833,7 +33833,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -34204,7 +34204,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -34731,7 +34731,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -34798,7 +34798,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -34861,7 +34861,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -34932,7 +34932,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -35149,7 +35149,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -35374,7 +35374,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -35520,7 +35520,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -35591,7 +35591,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -35737,7 +35737,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -35950,7 +35950,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -36088,7 +36088,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -36610,7 +36610,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -36981,7 +36981,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -37278,7 +37278,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -37433,7 +37433,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -37731,7 +37731,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -37865,7 +37865,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -38232,7 +38232,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -38378,7 +38378,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -38592,7 +38592,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -38897,7 +38897,7 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -38976,7 +38976,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -39051,7 +39051,7 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -39130,7 +39130,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -39205,7 +39205,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -39276,7 +39276,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K537" t="inlineStr">
@@ -39497,7 +39497,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -39726,7 +39726,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -39880,7 +39880,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -40030,7 +40030,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -40176,7 +40176,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -40314,7 +40314,7 @@
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -40452,7 +40452,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -40531,7 +40531,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -40602,7 +40602,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -40902,7 +40902,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -41549,7 +41549,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -41620,7 +41620,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -42121,7 +42121,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -42276,7 +42276,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -42351,7 +42351,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -42580,7 +42580,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -42805,7 +42805,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -42868,7 +42868,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -43291,7 +43291,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -44678,7 +44678,7 @@
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -44895,7 +44895,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
@@ -45381,7 +45381,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -45452,7 +45452,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -46115,7 +46115,7 @@
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -46379,7 +46379,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K635" t="inlineStr">
@@ -46538,7 +46538,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K637" t="inlineStr">
@@ -46609,7 +46609,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -46897,7 +46897,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K642" t="inlineStr">
@@ -47565,7 +47565,7 @@
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -48070,7 +48070,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -48218,7 +48218,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -48285,7 +48285,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -48506,7 +48506,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -48876,7 +48876,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
@@ -49034,7 +49034,7 @@
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -49319,7 +49319,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -49391,7 +49391,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -49689,7 +49689,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K680" t="inlineStr">
@@ -49847,7 +49847,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -50141,7 +50141,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -50220,7 +50220,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K687" t="inlineStr">
@@ -50715,7 +50715,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K694" t="inlineStr">
@@ -51500,7 +51500,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K705" t="inlineStr">
@@ -51941,7 +51941,7 @@
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K711" t="inlineStr">
@@ -52317,7 +52317,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K716" t="inlineStr">
@@ -52546,7 +52546,7 @@
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K719" t="inlineStr">
@@ -53063,7 +53063,7 @@
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K726" t="inlineStr">
@@ -53209,7 +53209,7 @@
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K728" t="inlineStr">
@@ -53288,7 +53288,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K729" t="inlineStr">
@@ -53367,7 +53367,7 @@
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K730" t="inlineStr">
@@ -53746,7 +53746,7 @@
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K735" t="inlineStr">
@@ -54023,7 +54023,7 @@
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K739" t="inlineStr">
@@ -55223,7 +55223,7 @@
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K755" t="inlineStr">
@@ -56105,7 +56105,7 @@
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K767" t="inlineStr">
@@ -56342,7 +56342,7 @@
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K770" t="inlineStr">
@@ -56555,7 +56555,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -57067,7 +57067,7 @@
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K780" t="inlineStr">
@@ -57284,7 +57284,7 @@
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K783" t="inlineStr">
@@ -57790,7 +57790,7 @@
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K790" t="inlineStr">
@@ -57869,7 +57869,7 @@
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K791" t="inlineStr">
@@ -58179,7 +58179,7 @@
       </c>
       <c r="J795" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K795" t="inlineStr">
@@ -59138,7 +59138,7 @@
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K808" t="inlineStr">
@@ -61057,7 +61057,7 @@
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K834" t="inlineStr">
@@ -61208,7 +61208,7 @@
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K836" t="inlineStr">
@@ -61507,7 +61507,7 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K840" t="inlineStr">
@@ -61578,7 +61578,7 @@
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K841" t="inlineStr">
@@ -61718,7 +61718,7 @@
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K843" t="inlineStr">
@@ -62219,7 +62219,7 @@
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K850" t="inlineStr">
@@ -62377,7 +62377,7 @@
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K852" t="inlineStr">
@@ -62665,7 +62665,7 @@
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K856" t="inlineStr">
@@ -63158,7 +63158,7 @@
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K863" t="inlineStr">
@@ -63819,7 +63819,7 @@
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K872" t="inlineStr">
@@ -64493,7 +64493,7 @@
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K881" t="inlineStr">
@@ -64568,7 +64568,7 @@
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K882" t="inlineStr">
@@ -64729,7 +64729,7 @@
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K884" t="inlineStr">
@@ -64879,7 +64879,7 @@
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K886" t="inlineStr">
@@ -64958,7 +64958,7 @@
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K887" t="inlineStr">
@@ -65021,7 +65021,7 @@
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K888" t="inlineStr">
@@ -65092,7 +65092,7 @@
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K889" t="inlineStr">
@@ -65404,7 +65404,7 @@
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K893" t="inlineStr">
@@ -65538,7 +65538,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K895" t="inlineStr">
@@ -65688,7 +65688,7 @@
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K897" t="inlineStr">
@@ -65834,7 +65834,7 @@
       </c>
       <c r="J899" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K899" t="inlineStr">
@@ -65901,7 +65901,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K900" t="inlineStr">
@@ -66336,7 +66336,7 @@
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K906" t="inlineStr">
@@ -67323,7 +67323,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K919" t="inlineStr">
@@ -67623,7 +67623,7 @@
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K923" t="inlineStr">
@@ -68013,7 +68013,7 @@
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K928" t="inlineStr">
@@ -68738,7 +68738,7 @@
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K938" t="inlineStr">
@@ -68817,7 +68817,7 @@
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K939" t="inlineStr">
@@ -68896,7 +68896,7 @@
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K940" t="inlineStr">
@@ -70052,7 +70052,7 @@
       </c>
       <c r="J956" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K956" t="inlineStr">
@@ -71825,7 +71825,7 @@
       </c>
       <c r="J980" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K980" t="inlineStr">

--- a/aichan/544930860516298141_2021-07-08_11-30-03.xlsx
+++ b/aichan/544930860516298141_2021-07-08_11-30-03.xlsx
@@ -549,7 +549,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -9019,7 +9019,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -11785,7 +11785,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -12200,7 +12200,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12469,7 +12469,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12610,7 +12610,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13865,7 +13865,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -14007,7 +14007,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -16951,7 +16951,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -17093,7 +17093,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -17516,7 +17516,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17812,7 +17812,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -17879,7 +17879,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -18033,7 +18033,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -18476,7 +18476,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18551,7 +18551,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -18690,7 +18690,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -19497,7 +19497,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19856,7 +19856,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -20503,7 +20503,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20921,7 +20921,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -21227,7 +21227,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -21306,7 +21306,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -22258,7 +22258,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -22480,7 +22480,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -23561,7 +23561,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23624,7 +23624,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -24510,7 +24510,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -24577,7 +24577,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -26081,7 +26081,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -26366,7 +26366,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -26809,7 +26809,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -27027,7 +27027,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -27461,7 +27461,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -29035,7 +29035,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -29173,7 +29173,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -29323,7 +29323,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -29471,7 +29471,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -29906,7 +29906,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -29977,7 +29977,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -30123,7 +30123,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -30341,7 +30341,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -30558,7 +30558,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -30629,7 +30629,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -30700,7 +30700,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -30838,7 +30838,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -31136,7 +31136,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -31211,7 +31211,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -31286,7 +31286,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -32232,7 +32232,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -32968,7 +32968,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -33173,7 +33173,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -33614,7 +33614,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -34861,7 +34861,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -35149,7 +35149,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -35737,7 +35737,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -36021,7 +36021,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -36376,7 +36376,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -36681,7 +36681,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -36981,7 +36981,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -37128,7 +37128,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -37865,7 +37865,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -39426,7 +39426,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -39726,7 +39726,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K543" t="inlineStr">
@@ -40030,7 +40030,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -40531,7 +40531,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -40602,7 +40602,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -40827,7 +40827,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -41549,7 +41549,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -41620,7 +41620,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -41687,7 +41687,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -43792,7 +43792,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -43935,7 +43935,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -44089,7 +44089,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -46609,7 +46609,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K638" t="inlineStr">
@@ -48070,7 +48070,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -48805,7 +48805,7 @@
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K668" t="inlineStr">
@@ -48955,7 +48955,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -49034,7 +49034,7 @@
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K671" t="inlineStr">
@@ -49319,7 +49319,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -49847,7 +49847,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -50299,7 +50299,7 @@
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K688" t="inlineStr">
@@ -51500,7 +51500,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K705" t="inlineStr">
@@ -52171,7 +52171,7 @@
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K714" t="inlineStr">
@@ -52996,7 +52996,7 @@
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K725" t="inlineStr">
@@ -56105,7 +56105,7 @@
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K767" t="inlineStr">
@@ -56184,7 +56184,7 @@
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K768" t="inlineStr">
@@ -56555,7 +56555,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K773" t="inlineStr">
@@ -56701,7 +56701,7 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K775" t="inlineStr">
@@ -57067,7 +57067,7 @@
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K780" t="inlineStr">
@@ -57284,7 +57284,7 @@
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K783" t="inlineStr">
@@ -57790,7 +57790,7 @@
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K790" t="inlineStr">
@@ -61057,7 +61057,7 @@
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K834" t="inlineStr">
@@ -61507,7 +61507,7 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K840" t="inlineStr">
@@ -62594,7 +62594,7 @@
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K855" t="inlineStr">
@@ -63158,7 +63158,7 @@
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K863" t="inlineStr">
@@ -63819,7 +63819,7 @@
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K872" t="inlineStr">
@@ -65021,7 +65021,7 @@
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K888" t="inlineStr">
@@ -65404,7 +65404,7 @@
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K893" t="inlineStr">
@@ -65834,7 +65834,7 @@
       </c>
       <c r="J899" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K899" t="inlineStr">
@@ -68817,7 +68817,7 @@
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K939" t="inlineStr">
@@ -70052,7 +70052,7 @@
       </c>
       <c r="J956" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K956" t="inlineStr">
@@ -71825,7 +71825,7 @@
       </c>
       <c r="J980" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K980" t="inlineStr">
